--- a/biology/Médecine/Le_Livre_de_San_Michele_(film)/Le_Livre_de_San_Michele_(film).xlsx
+++ b/biology/Médecine/Le_Livre_de_San_Michele_(film)/Le_Livre_de_San_Michele_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Livre de San Michele (Axel Munthe, der Arzt von San Michele) est un film germano-franco-italien réalisé par Giorgio Capitani, Rudolf Jugert et Georg Marischka, sorti en 1962.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie du docteur suédois Axel Munthe : depuis le début de son exercice de la médecine en France jusqu’à sa retraite dans la Villa San Michele à Capri en passant par sa rencontre avec Louis Pasteur à Paris, son combat contre l’épidémie de choléra à Naples et l’ouverture de son cabinet à Rome.   
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Livre de San Michele
 Titre original : Axel Munthe, der Arzt von San Michele
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>O. W. Fischer : Axel Munthe
 Rosanna Schiaffino : Antonia
